--- a/public/excel/3.xlsx
+++ b/public/excel/3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="7950"/>
+    <workbookView windowWidth="19770" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
+  <si>
+    <t>序号</t>
+  </si>
   <si>
     <t>用户名</t>
   </si>
@@ -66,10 +69,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -729,11 +732,14 @@
     </xf>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1073,84 +1079,91 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00833333333333" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="9.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="6.25" style="1" customWidth="1"/>
-    <col min="11" max="12" width="9.5" style="1" customWidth="1"/>
-    <col min="13" max="13" width="10.5" style="1" customWidth="1"/>
-    <col min="14" max="15" width="9" style="1"/>
-    <col min="16" max="16" width="11.125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="14.25" style="1" customWidth="1"/>
-    <col min="18" max="31" width="9.125" style="1" customWidth="1"/>
-    <col min="32" max="32" width="11.25" style="1" customWidth="1"/>
-    <col min="33" max="16384" width="9.00833333333333" style="1"/>
+    <col min="1" max="1" width="9.00833333333333" style="2"/>
+    <col min="2" max="2" width="9.75" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.75" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="14.125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="15.125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="9.5" style="2" customWidth="1"/>
+    <col min="11" max="11" width="6.25" style="1" customWidth="1"/>
+    <col min="12" max="13" width="9.5" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5" style="1" customWidth="1"/>
+    <col min="15" max="16" width="9" style="1"/>
+    <col min="17" max="17" width="11.125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="14.25" style="1" customWidth="1"/>
+    <col min="19" max="32" width="9.125" style="1" customWidth="1"/>
+    <col min="33" max="33" width="11.25" style="1" customWidth="1"/>
+    <col min="34" max="16384" width="9.00833333333333" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:9">
+    <row r="1" s="1" customFormat="1" spans="1:10">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="1:10">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="E2" s="6"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="3" t="s">
         <v>14</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
